--- a/PlateForExcelFiles/test.xlsx
+++ b/PlateForExcelFiles/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ExcelEaterConsoleEdition\PlateForExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC8158C-B1FC-4FC0-AEED-B53019E40228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE50D40-FB86-4271-9098-2EF63CFFA05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7485" yWindow="5535" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Этот нельзя" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Заголовок1</t>
   </si>
@@ -38,7 +38,31 @@
     <t>Заголовок 3</t>
   </si>
   <si>
-    <t>Лми</t>
+    <t>Рикардо</t>
+  </si>
+  <si>
+    <t>Милос</t>
+  </si>
+  <si>
+    <t>Генеральские котлы</t>
+  </si>
+  <si>
+    <t>Что</t>
+  </si>
+  <si>
+    <t>Где</t>
+  </si>
+  <si>
+    <t>Когда</t>
+  </si>
+  <si>
+    <t>Дота2</t>
+  </si>
+  <si>
+    <t>ЛоЛ</t>
+  </si>
+  <si>
+    <t>Кек</t>
   </si>
 </sst>
 </file>
@@ -358,7 +382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F423816E-AD75-4142-9A45-89F1E5E9B682}">
   <dimension ref="E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -379,7 +403,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,15 +464,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DF602D-2FB6-4521-B164-3AC77C915406}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
